--- a/MAC1147Grade.xlsx
+++ b/MAC1147Grade.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8320" yWindow="1460" windowWidth="25880" windowHeight="16820" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="23320" windowHeight="14020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>MyMathLb HWAv</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,6 +50,10 @@
   </si>
   <si>
     <t>Results</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -437,6 +441,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
       <c r="H1" t="s">
         <v>7</v>
       </c>
@@ -463,6 +485,10 @@
       <c r="F2">
         <v>66</v>
       </c>
+      <c r="H2">
+        <f>SUM(B2:G2)/5</f>
+        <v>77.400000000000006</v>
+      </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
@@ -497,11 +523,11 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>99.96</v>
+        <v>99.98</v>
       </c>
       <c r="I4">
         <f>H4*0.15</f>
-        <v>14.993999999999998</v>
+        <v>14.997</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -521,11 +547,11 @@
         <v>3</v>
       </c>
       <c r="H6">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I6">
         <f>H6*0.03</f>
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -533,21 +559,20 @@
         <v>2</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>46.9</v>
       </c>
       <c r="I7">
         <f>H7*0.2</f>
-        <v>0</v>
+        <v>9.3800000000000008</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="I8">
         <f>SUM(I2:I7)</f>
-        <v>70.543999999999997</v>
+        <v>80.076999999999998</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/MAC1147Grade.xlsx
+++ b/MAC1147Grade.xlsx
@@ -426,7 +426,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>

--- a/MAC1147Grade.xlsx
+++ b/MAC1147Grade.xlsx
@@ -426,7 +426,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>

--- a/MAC1147Grade.xlsx
+++ b/MAC1147Grade.xlsx
@@ -426,7 +426,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -510,7 +510,7 @@
         <v>12</v>
       </c>
       <c r="H3">
-        <f>SUM(B3:G4)/4</f>
+        <f>SUM(B3:G3)/4</f>
         <v>85.5</v>
       </c>
       <c r="I3">

--- a/MAC1147Grade.xlsx
+++ b/MAC1147Grade.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="23320" windowHeight="14020" tabRatio="500"/>
+    <workbookView xWindow="12580" yWindow="80" windowWidth="23320" windowHeight="14020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -426,7 +426,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -507,15 +507,15 @@
         <v>66</v>
       </c>
       <c r="G3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H3">
         <f>SUM(B3:G3)/4</f>
-        <v>85.5</v>
+        <v>86</v>
       </c>
       <c r="I3">
         <f>H3*0.6</f>
-        <v>51.3</v>
+        <v>51.6</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -523,11 +523,11 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>99.98</v>
+        <v>99.8</v>
       </c>
       <c r="I4">
         <f>H4*0.15</f>
-        <v>14.997</v>
+        <v>14.969999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -547,11 +547,11 @@
         <v>3</v>
       </c>
       <c r="H6">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="I6">
         <f>H6*0.03</f>
-        <v>2.4</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -559,17 +559,17 @@
         <v>2</v>
       </c>
       <c r="H7">
-        <v>46.9</v>
+        <v>93</v>
       </c>
       <c r="I7">
         <f>H7*0.2</f>
-        <v>9.3800000000000008</v>
+        <v>18.600000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="I8">
         <f>SUM(I2:I7)</f>
-        <v>80.076999999999998</v>
+        <v>90.109999999999985</v>
       </c>
     </row>
   </sheetData>
